--- a/xlsx/长滩 (加利福尼亚州)_intext.xlsx
+++ b/xlsx/长滩 (加利福尼亚州)_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="445">
   <si>
     <t>长滩 (加利福尼亚州)</t>
   </si>
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>政策_政策_加州_长滩 (加利福尼亚州)</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E9%95%B7</t>
   </si>
   <si>
-    <t>市長</t>
+    <t>市长</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Robert_%22Bob%22_Foster</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E6%A8%99%E6%BA%96%E6%99%82%E9%96%93</t>
   </si>
   <si>
-    <t>太平洋標準時間</t>
+    <t>太平洋标准时间</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/UTC-8</t>
@@ -113,19 +113,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%B2%B8</t>
   </si>
   <si>
-    <t>美國西岸</t>
+    <t>美国西岸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%A3%AF</t>
   </si>
   <si>
-    <t>洛杉磯</t>
+    <t>洛杉矶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%95%B7%E5%A0%A4%E6%B8%AF</t>
   </si>
   <si>
-    <t>長堤港</t>
+    <t>长堤港</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%AF%E5%8F%A3</t>
@@ -143,13 +143,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E7%AB%8B%E5%AD%B8%E6%A0%A1</t>
   </si>
   <si>
-    <t>公立學校</t>
+    <t>公立学校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ABC%E8%81%AF%E5%90%88%E5%AD%B8%E5%8D%80</t>
   </si>
   <si>
-    <t>ABC聯合學區</t>
+    <t>ABC联合学区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E7%AD%89%E6%95%99%E8%82%B2</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8%E9%95%B7%E7%81%98%E6%A0%A1%E5%8D%80</t>
   </si>
   <si>
-    <t>加州州立大學長灘校區</t>
+    <t>加州州立大学长滩校区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E5%8C%BA%E5%A4%A7%E5%AD%A6</t>
@@ -185,13 +185,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A9%99%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>橙縣 (加利福尼亞州)</t>
+    <t>橙县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E8%97%8D%E8%88%AA%E7%A9%BA</t>
   </si>
   <si>
-    <t>捷藍航空</t>
+    <t>捷蓝航空</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E9%9F%B3</t>
@@ -209,7 +209,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E5%85%8B%E5%94%90%E7%B4%8D%E9%81%93%E6%A0%BC%E6%8B%89%E6%96%AF</t>
   </si>
   <si>
-    <t>麥克唐納道格拉斯</t>
+    <t>麦克唐纳道格拉斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%9F%B6%E5%9B%BD%E9%99%85%E6%9C%BA%E5%9C%BA</t>
@@ -221,13 +221,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93</t>
   </si>
   <si>
-    <t>菲律賓</t>
+    <t>菲律宾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E7%A7%91%E7%BE%85</t>
   </si>
   <si>
-    <t>巴科羅</t>
+    <t>巴科罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5</t>
@@ -239,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%93%9C%E9%81%94%E6%8B%89%E5%93%88%E6%8B%89_(%E5%A2%A8%E8%A5%BF%E5%93%A5)</t>
   </si>
   <si>
-    <t>瓜達拉哈拉 (墨西哥)</t>
+    <t>瓜达拉哈拉 (墨西哥)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6</t>
@@ -251,7 +251,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E7%88%BE%E5%90%84%E7%AD%94</t>
   </si>
   <si>
-    <t>加爾各答</t>
+    <t>加尔各答</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E7%93%9C%E5%A4%9A%E5%B0%94</t>
@@ -275,7 +275,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E9%82%8A</t>
   </si>
   <si>
-    <t>金邊</t>
+    <t>金边</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -287,13 +287,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%92%E5%B3%B6</t>
   </si>
   <si>
-    <t>青島</t>
+    <t>青岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
+    <t>俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E5%A5%91</t>
@@ -311,7 +311,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E7%88%BE%E5%B8%95%E8%90%8A%E7%B4%A2</t>
   </si>
   <si>
-    <t>瓦爾帕萊索</t>
+    <t>瓦尔帕莱索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
@@ -371,7 +371,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E5%8A%A0%E7%B7%AC%E5%BA%A6_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>沙加緬度 (加利福尼亞州)</t>
+    <t>沙加缅度 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E%E9%80%89%E4%B8%BE</t>
@@ -383,19 +383,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>加利福尼亞州歷史</t>
+    <t>加利福尼亚州历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>加利福尼亞州行政區劃</t>
+    <t>加利福尼亚州行政区划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E7%B1%B3%E9%81%94%E7%B8%A3</t>
   </si>
   <si>
-    <t>阿拉米達縣</t>
+    <t>阿拉米达县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E6%B4%BE%E6%81%A9%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -413,7 +413,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E7%89%B9%E9%83%A1_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>布特郡 (加利福尼亞州)</t>
+    <t>布特郡 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%8B%89%E9%9F%A6%E6%8B%89%E6%96%AF%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -431,7 +431,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E7%89%B9%E6%8B%89%E7%A7%91%E6%96%AF%E5%A1%94%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>康特拉科斯塔縣 (加利福尼亞州)</t>
+    <t>康特拉科斯塔县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%B0%94%E8%AF%BA%E7%89%B9%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -449,7 +449,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E9%9B%B7%E6%96%AF%E8%AB%BE%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>費雷斯諾縣 (加利福尼亞州)</t>
+    <t>费雷斯诺县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E4%BC%A6%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -461,7 +461,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%AA%E5%A0%A1%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>洪堡縣 (加利福尼亞州)</t>
+    <t>洪堡县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%A0%E7%9A%AE%E9%87%8C%E5%B0%94%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -491,7 +491,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E5%85%8B%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>萊克縣 (加利福尼亞州)</t>
+    <t>莱克县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%A3%AE%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -503,7 +503,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%BE%B7%E6%8B%89%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>馬德拉縣 (加利福尼亞州)</t>
+    <t>马德拉县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9E%97%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -527,7 +527,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%98%E5%A1%9E%E5%BE%B7%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>默塞德縣 (加利福尼亞州)</t>
+    <t>默塞德县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E5%A4%9A%E5%85%8B%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -545,7 +545,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E9%9B%B7%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>蒙特雷縣 (加利福尼亞州)</t>
+    <t>蒙特雷县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E5%B8%95%E5%8E%BF</t>
@@ -557,7 +557,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E8%8F%AF%E9%81%94%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>內華達縣 (加利福尼亞州)</t>
+    <t>内华达县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E8%8E%B1%E7%91%9F%E5%8E%BF</t>
@@ -575,25 +575,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%B3%E6%BF%B1%E7%B8%A3</t>
   </si>
   <si>
-    <t>河濱縣</t>
+    <t>河滨县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%B2%9D%E5%B0%BC%E6%89%98%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖貝尼托縣 (加利福尼亞州)</t>
+    <t>圣贝尼托县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%B2%9D%E7%B4%8D%E8%BF%AA%E8%AB%BE%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖貝納迪諾縣 (加利福尼亞州)</t>
+    <t>圣贝纳迪诺县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%9C%B0%E7%89%99%E5%93%A5%E9%83%A1_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖地牙哥郡 (加利福尼亞州)</t>
+    <t>圣地牙哥郡 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A7%E9%87%91%E5%B1%B1</t>
@@ -605,31 +605,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%8F%AF%E9%87%91%E7%B8%A3</t>
   </si>
   <si>
-    <t>聖華金縣</t>
+    <t>圣华金县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%B7%AF%E6%98%93%E6%96%AF-%E5%A5%A7%E6%AF%94%E6%96%AF%E6%B3%A2%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖路易斯-奧比斯波縣 (加利福尼亞州)</t>
+    <t>圣路易斯-奥比斯波县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%A6%AC%E5%88%81%E9%83%A1_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖馬刁郡 (加利福尼亞州)</t>
+    <t>圣马刁郡 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%B7%B4%E5%B7%B4%E6%8B%89%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖巴巴拉縣 (加利福尼亞州)</t>
+    <t>圣巴巴拉县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%A1%94%E5%85%8B%E6%8B%89%E6%8B%89%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖塔克拉拉縣 (加利福尼亞州)</t>
+    <t>圣塔克拉拉县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%A1%94%E5%85%8B%E9%B2%81%E5%85%B9%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -647,7 +647,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AC%9D%E6%8B%89%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>謝拉縣 (加利福尼亞州)</t>
+    <t>谢拉县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%94%A1%E6%96%AF%E5%9F%BA%E5%B0%A4%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -713,7 +713,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%84%AA%E6%B4%9B%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>優洛縣 (加利福尼亞州)</t>
+    <t>优洛县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%A4%E5%B7%B4%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -743,13 +743,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E5%80%AB%E4%BB%A3%E7%88%BE_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>格倫代爾 (加利福尼亞州)</t>
+    <t>格伦代尔 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E5%BE%B7%E6%96%AF%E6%89%98_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>莫德斯托 (加利福尼亞州)</t>
+    <t>莫德斯托 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E5%B8%95_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -767,7 +767,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E5%88%A9%E8%92%99_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>費利蒙 (加利福尼亞州)</t>
+    <t>费利蒙 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%B2%83%E5%BE%B7_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -785,7 +785,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%B9%E6%9B%BE%E5%BE%B7%E5%A5%A7%E5%85%8B%E6%96%AF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>紹曾德奧克斯 (加利福尼亞州)</t>
+    <t>绍曾德奥克斯 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E4%B8%81_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -803,7 +803,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%A4%A7%E7%95%A5_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>安大略 (加利福尼亞州)</t>
+    <t>安大略 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%96%AF%E7%BB%B4%E5%B0%94_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -827,19 +827,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%A6%AC%E5%8F%AF%E6%96%AF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖馬可斯 (加利福尼亞州)</t>
+    <t>圣马可斯 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E6%9C%A8%E5%9F%8E</t>
   </si>
   <si>
-    <t>紅木城</t>
+    <t>红木城</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%8D%B7%E8%A5%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖荷西 (加利福尼亞州)</t>
+    <t>圣荷西 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A3%AE%E5%B0%BC%E9%9F%A6%E5%B0%94_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -857,13 +857,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%82%A3%E7%BF%B0_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>安那翰 (加利福尼亞州)</t>
+    <t>安那翰 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%96%87_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>歐文 (加利福尼亞州)</t>
+    <t>欧文 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E7%8E%9B%E4%B8%BD%E4%BA%9A_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -881,7 +881,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%BE%85%E8%8E%8E_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖羅莎 (加利福尼亞州)</t>
+    <t>圣罗莎 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%A9%E5%A1%94%E5%8D%A2%E9%A9%AC</t>
@@ -911,7 +911,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%A1%9E%E5%88%A9%E4%BA%9E_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>維塞利亞 (加利福尼亞州)</t>
+    <t>维塞利亚 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%89%B9%E7%BB%B4%E5%B0%94_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -923,7 +923,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%A4%E5%B7%B4%E5%9F%8E_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>尤巴城 (加利福尼亞州)</t>
+    <t>尤巴城 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%8B%8F%E5%B0%94</t>
@@ -989,13 +989,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E5%93%88%E9%9F%8B%E6%B2%99%E6%BC%A0</t>
   </si>
   <si>
-    <t>莫哈韋沙漠</t>
+    <t>莫哈韦沙漠</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>北加利福尼亞州</t>
+    <t>北加利福尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E8%B4%B9%E5%B0%94%E5%8D%97%E5%A4%9A%E8%B0%B7</t>
@@ -1007,7 +1007,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E9%87%91%E5%B1%B1%E7%81%A3%E5%8D%80</t>
   </si>
   <si>
-    <t>舊金山灣區</t>
+    <t>旧金山湾区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A7%E9%87%91%E5%B1%B1%E5%8D%8A%E5%B2%9B</t>
@@ -1025,13 +1025,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%8F%AF%E9%87%91%E8%B0%B7</t>
   </si>
   <si>
-    <t>聖華金谷</t>
+    <t>圣华金谷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E8%8F%AF%E9%81%94%E5%B1%B1%E8%84%88</t>
   </si>
   <si>
-    <t>內華達山脈</t>
+    <t>内华达山脉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A1%85%E8%B0%B7</t>
@@ -1043,19 +1043,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>南加利福尼亞</t>
+    <t>南加利福尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B8%BB%E8%A6%81%E9%83%BD%E5%B8%82%E4%BA%BA%E5%8F%A3%E9%A0%86%E4%BD%8D</t>
   </si>
   <si>
-    <t>美國主要都市人口順位</t>
+    <t>美国主要都市人口顺位</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84</t>
   </si>
   <si>
-    <t>紐約</t>
+    <t>纽约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5</t>
@@ -1067,13 +1067,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%91%E5%A3%AB%E9%A0%93</t>
   </si>
   <si>
-    <t>休士頓</t>
+    <t>休士顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%B3%B3%E5%87%B0%E5%9F%8E_(%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E)</t>
   </si>
   <si>
-    <t>鳳凰城 (亞利桑那州)</t>
+    <t>凤凰城 (亚利桑那州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%B9%E5%9F%8E</t>
@@ -1085,7 +1085,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%AE%89%E6%9D%B1%E5%B0%BC%E5%A5%A7_(%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖安東尼奧 (德克薩斯州)</t>
+    <t>圣安东尼奥 (德克萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E8%BF%AD%E6%88%88_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -1097,7 +1097,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%94%E6%8B%89%E6%96%AF</t>
   </si>
   <si>
-    <t>達拉斯</t>
+    <t>达拉斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B0%E5%85%8B%E9%80%8A%E7%BB%B4%E5%B0%94_(%E4%BD%9B%E7%BD%97%E9%87%8C%E8%BE%BE%E5%B7%9E)</t>
@@ -1109,25 +1109,22 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E7%B4%8D%E6%B3%A2%E5%88%A9%E6%96%AF</t>
   </si>
   <si>
-    <t>印第安納波利斯</t>
+    <t>印第安纳波利斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E9%87%91%E5%B1%B1</t>
   </si>
   <si>
-    <t>舊金山</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%96%AF%E6%B1%80</t>
   </si>
   <si>
-    <t>奧斯汀</t>
+    <t>奥斯汀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E5%B8%83_(%E4%BF%84%E4%BA%A5%E4%BF%84%E5%B7%9E)</t>
   </si>
   <si>
-    <t>哥倫布 (俄亥俄州)</t>
+    <t>哥伦布 (俄亥俄州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E6%96%AF%E5%A0%A1</t>
@@ -1139,7 +1136,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E6%B4%9B%E7%89%B9_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E9%82%A3%E5%B7%9E)</t>
   </si>
   <si>
-    <t>夏洛特 (北卡羅萊那州)</t>
+    <t>夏洛特 (北卡罗莱那州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%95%E7%89%B9%E5%BE%8B</t>
@@ -1151,31 +1148,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E7%88%BE%E5%B8%95%E7%B4%A2_(%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>艾爾帕索 (德克薩斯州)</t>
+    <t>艾尔帕索 (德克萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E8%8F%B2%E6%96%AF_(%E7%94%B0%E7%B4%8D%E8%A5%BF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>孟菲斯 (田納西州)</t>
+    <t>孟菲斯 (田纳西州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E7%88%BE%E7%9A%84%E6%91%A9</t>
   </si>
   <si>
-    <t>巴爾的摩</t>
+    <t>巴尔的摩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E9%A0%93</t>
   </si>
   <si>
-    <t>波士頓</t>
+    <t>波士顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%9B%85%E5%9C%96</t>
   </si>
   <si>
-    <t>西雅圖</t>
+    <t>西雅图</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E7%89%B9%E5%8C%BA</t>
@@ -1199,7 +1196,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%E7%B6%AD%E7%88%BE</t>
   </si>
   <si>
-    <t>路易斯維爾</t>
+    <t>路易斯维尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E5%B0%94%E6%B2%83%E5%9F%BA</t>
@@ -1211,19 +1208,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%89%B9%E8%98%AD_(%E5%A5%A7%E5%8B%92%E5%B2%A1%E5%B7%9E)</t>
   </si>
   <si>
-    <t>波特蘭 (奧勒岡州)</t>
+    <t>波特兰 (奥勒冈州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%96%AF%E7%B6%AD%E5%8A%A0%E6%96%AF</t>
   </si>
   <si>
-    <t>拉斯維加斯</t>
+    <t>拉斯维加斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B8%82</t>
   </si>
   <si>
-    <t>奧克拉荷馬市</t>
+    <t>奥克拉荷马市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B8%83%E5%A5%8E%E5%9F%BA_(%E6%96%B0%E5%A2%A8%E8%A5%BF%E5%93%A5%E5%B7%9E)</t>
@@ -1235,43 +1232,43 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%96%E6%A3%AE_(%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E)</t>
   </si>
   <si>
-    <t>圖森 (亞利桑那州)</t>
+    <t>图森 (亚利桑那州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E9%9B%B7%E6%96%AF%E8%AB%BE</t>
   </si>
   <si>
-    <t>佛雷斯諾</t>
+    <t>佛雷斯诺</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%96%A9%E6%96%AF%E5%9F%8E_(%E5%AF%86%E8%98%87%E9%87%8C%E5%B7%9E)</t>
   </si>
   <si>
-    <t>堪薩斯城 (密蘇里州)</t>
+    <t>堪萨斯城 (密苏里州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E8%96%A9_(%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E)</t>
   </si>
   <si>
-    <t>梅薩 (亞利桑那州)</t>
+    <t>梅萨 (亚利桑那州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E6%B5%B7%E7%81%98</t>
   </si>
   <si>
-    <t>維吉尼亞海灘</t>
+    <t>维吉尼亚海滩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%89%B9%E8%98%AD%E5%A4%A7</t>
   </si>
   <si>
-    <t>亞特蘭大</t>
+    <t>亚特兰大</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E6%B3%89</t>
   </si>
   <si>
-    <t>科羅拉多泉</t>
+    <t>科罗拉多泉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E9%A9%AC%E5%93%88_(%E5%86%85%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E)</t>
@@ -1289,19 +1286,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%82%81%E9%98%BF%E5%AF%86</t>
   </si>
   <si>
-    <t>邁阿密</t>
+    <t>迈阿密</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E5%A4%AB%E8%98%AD_(%E4%BF%84%E4%BA%A5%E4%BF%84%E5%B7%9E)</t>
   </si>
   <si>
-    <t>克里夫蘭 (俄亥俄州)</t>
+    <t>克里夫兰 (俄亥俄州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%96%E7%88%BE%E8%96%A9</t>
   </si>
   <si>
-    <t>圖爾薩</t>
+    <t>图尔萨</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E9%98%BF%E6%B3%A2%E5%88%A9%E6%96%AF</t>
@@ -1325,7 +1322,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -7117,7 +7114,7 @@
         <v>365</v>
       </c>
       <c r="F187" t="s">
-        <v>366</v>
+        <v>194</v>
       </c>
       <c r="G187" t="n">
         <v>5</v>
@@ -7143,10 +7140,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
+        <v>366</v>
+      </c>
+      <c r="F188" t="s">
         <v>367</v>
-      </c>
-      <c r="F188" t="s">
-        <v>368</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7172,10 +7169,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
+        <v>368</v>
+      </c>
+      <c r="F189" t="s">
         <v>369</v>
-      </c>
-      <c r="F189" t="s">
-        <v>370</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7201,10 +7198,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
+        <v>370</v>
+      </c>
+      <c r="F190" t="s">
         <v>371</v>
-      </c>
-      <c r="F190" t="s">
-        <v>372</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7230,10 +7227,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
+        <v>372</v>
+      </c>
+      <c r="F191" t="s">
         <v>373</v>
-      </c>
-      <c r="F191" t="s">
-        <v>374</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7259,10 +7256,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
+        <v>374</v>
+      </c>
+      <c r="F192" t="s">
         <v>375</v>
-      </c>
-      <c r="F192" t="s">
-        <v>376</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7288,10 +7285,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
+        <v>376</v>
+      </c>
+      <c r="F193" t="s">
         <v>377</v>
-      </c>
-      <c r="F193" t="s">
-        <v>378</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7317,10 +7314,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
+        <v>378</v>
+      </c>
+      <c r="F194" t="s">
         <v>379</v>
-      </c>
-      <c r="F194" t="s">
-        <v>380</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7346,10 +7343,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
+        <v>380</v>
+      </c>
+      <c r="F195" t="s">
         <v>381</v>
-      </c>
-      <c r="F195" t="s">
-        <v>382</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7375,10 +7372,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
+        <v>382</v>
+      </c>
+      <c r="F196" t="s">
         <v>383</v>
-      </c>
-      <c r="F196" t="s">
-        <v>384</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7404,10 +7401,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
+        <v>384</v>
+      </c>
+      <c r="F197" t="s">
         <v>385</v>
-      </c>
-      <c r="F197" t="s">
-        <v>386</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7433,10 +7430,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
+        <v>386</v>
+      </c>
+      <c r="F198" t="s">
         <v>387</v>
-      </c>
-      <c r="F198" t="s">
-        <v>388</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7462,10 +7459,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
+        <v>388</v>
+      </c>
+      <c r="F199" t="s">
         <v>389</v>
-      </c>
-      <c r="F199" t="s">
-        <v>390</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7491,10 +7488,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
+        <v>390</v>
+      </c>
+      <c r="F200" t="s">
         <v>391</v>
-      </c>
-      <c r="F200" t="s">
-        <v>392</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7520,10 +7517,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
+        <v>392</v>
+      </c>
+      <c r="F201" t="s">
         <v>393</v>
-      </c>
-      <c r="F201" t="s">
-        <v>394</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7549,10 +7546,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
+        <v>394</v>
+      </c>
+      <c r="F202" t="s">
         <v>395</v>
-      </c>
-      <c r="F202" t="s">
-        <v>396</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7578,10 +7575,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
+        <v>396</v>
+      </c>
+      <c r="F203" t="s">
         <v>397</v>
-      </c>
-      <c r="F203" t="s">
-        <v>398</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7607,10 +7604,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
+        <v>398</v>
+      </c>
+      <c r="F204" t="s">
         <v>399</v>
-      </c>
-      <c r="F204" t="s">
-        <v>400</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7636,10 +7633,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
+        <v>400</v>
+      </c>
+      <c r="F205" t="s">
         <v>401</v>
-      </c>
-      <c r="F205" t="s">
-        <v>402</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7665,10 +7662,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
+        <v>402</v>
+      </c>
+      <c r="F206" t="s">
         <v>403</v>
-      </c>
-      <c r="F206" t="s">
-        <v>404</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7694,10 +7691,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
+        <v>404</v>
+      </c>
+      <c r="F207" t="s">
         <v>405</v>
-      </c>
-      <c r="F207" t="s">
-        <v>406</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7723,10 +7720,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
+        <v>406</v>
+      </c>
+      <c r="F208" t="s">
         <v>407</v>
-      </c>
-      <c r="F208" t="s">
-        <v>408</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -7781,10 +7778,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
+        <v>408</v>
+      </c>
+      <c r="F210" t="s">
         <v>409</v>
-      </c>
-      <c r="F210" t="s">
-        <v>410</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -7810,10 +7807,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
+        <v>410</v>
+      </c>
+      <c r="F211" t="s">
         <v>411</v>
-      </c>
-      <c r="F211" t="s">
-        <v>412</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -7839,10 +7836,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
+        <v>412</v>
+      </c>
+      <c r="F212" t="s">
         <v>413</v>
-      </c>
-      <c r="F212" t="s">
-        <v>414</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -7868,10 +7865,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
+        <v>414</v>
+      </c>
+      <c r="F213" t="s">
         <v>415</v>
-      </c>
-      <c r="F213" t="s">
-        <v>416</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -7897,10 +7894,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
+        <v>416</v>
+      </c>
+      <c r="F214" t="s">
         <v>417</v>
-      </c>
-      <c r="F214" t="s">
-        <v>418</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -7926,10 +7923,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
+        <v>418</v>
+      </c>
+      <c r="F215" t="s">
         <v>419</v>
-      </c>
-      <c r="F215" t="s">
-        <v>420</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -7955,10 +7952,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
+        <v>420</v>
+      </c>
+      <c r="F216" t="s">
         <v>421</v>
-      </c>
-      <c r="F216" t="s">
-        <v>422</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -7984,10 +7981,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
+        <v>422</v>
+      </c>
+      <c r="F217" t="s">
         <v>423</v>
-      </c>
-      <c r="F217" t="s">
-        <v>424</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8013,10 +8010,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
+        <v>424</v>
+      </c>
+      <c r="F218" t="s">
         <v>425</v>
-      </c>
-      <c r="F218" t="s">
-        <v>426</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8042,10 +8039,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
+        <v>426</v>
+      </c>
+      <c r="F219" t="s">
         <v>427</v>
-      </c>
-      <c r="F219" t="s">
-        <v>428</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8100,10 +8097,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
+        <v>428</v>
+      </c>
+      <c r="F221" t="s">
         <v>429</v>
-      </c>
-      <c r="F221" t="s">
-        <v>430</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8129,10 +8126,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
+        <v>430</v>
+      </c>
+      <c r="F222" t="s">
         <v>431</v>
-      </c>
-      <c r="F222" t="s">
-        <v>432</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8158,10 +8155,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
+        <v>432</v>
+      </c>
+      <c r="F223" t="s">
         <v>433</v>
-      </c>
-      <c r="F223" t="s">
-        <v>434</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8187,10 +8184,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
+        <v>434</v>
+      </c>
+      <c r="F224" t="s">
         <v>435</v>
-      </c>
-      <c r="F224" t="s">
-        <v>436</v>
       </c>
       <c r="G224" t="n">
         <v>3</v>
@@ -8216,10 +8213,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
+        <v>436</v>
+      </c>
+      <c r="F225" t="s">
         <v>437</v>
-      </c>
-      <c r="F225" t="s">
-        <v>438</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8245,10 +8242,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
+        <v>438</v>
+      </c>
+      <c r="F226" t="s">
         <v>439</v>
-      </c>
-      <c r="F226" t="s">
-        <v>440</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8274,10 +8271,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
+        <v>440</v>
+      </c>
+      <c r="F227" t="s">
         <v>441</v>
-      </c>
-      <c r="F227" t="s">
-        <v>442</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8303,10 +8300,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
+        <v>442</v>
+      </c>
+      <c r="F228" t="s">
         <v>443</v>
-      </c>
-      <c r="F228" t="s">
-        <v>444</v>
       </c>
       <c r="G228" t="n">
         <v>7</v>
@@ -8332,10 +8329,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F229" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
